--- a/exposan/werf/data/GPS-X_results.xlsx
+++ b/exposan/werf/data/GPS-X_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joy_c\Dropbox\PhD\Research\QSD\benchmarking_WRRFs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joy_c\Dropbox\PhD\Research\QSD\codes_developing\EXPOsan\exposan\werf\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B1EBA5-ABF9-4EFD-BFFE-99F0B82ECD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764A0078-4D2B-409E-9863-857FB0C40334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="2715" windowWidth="23955" windowHeight="17175" xr2:uid="{2F0DC049-83DD-451F-80B4-402F5465F054}"/>
+    <workbookView xWindow="4500" yWindow="4275" windowWidth="21630" windowHeight="15345" activeTab="3" xr2:uid="{2F0DC049-83DD-451F-80B4-402F5465F054}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="71">
   <si>
     <t>Flow</t>
   </si>
@@ -390,7 +390,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -408,9 +408,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,87 +419,7 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="3" xr:uid="{16E1D94D-52DC-4C32-B918-34829BE8322E}"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -607,6 +528,9 @@
           <cell r="K4">
             <v>47.77241143136267</v>
           </cell>
+          <cell r="L4">
+            <v>57.50575300922646</v>
+          </cell>
           <cell r="N4">
             <v>671658.64822971413</v>
           </cell>
@@ -634,6 +558,9 @@
           <cell r="K12">
             <v>42.150510280680081</v>
           </cell>
+          <cell r="L12">
+            <v>58.73765583776612</v>
+          </cell>
           <cell r="N12">
             <v>465334.04805391608</v>
           </cell>
@@ -644,6 +571,9 @@
         <row r="13">
           <cell r="K13">
             <v>41.923848567092797</v>
+          </cell>
+          <cell r="L13">
+            <v>59.1521906024335</v>
           </cell>
           <cell r="N13">
             <v>325415.85406310798</v>
@@ -656,6 +586,9 @@
           <cell r="K16">
             <v>43.515280304172407</v>
           </cell>
+          <cell r="L16">
+            <v>59.083696262769827</v>
+          </cell>
           <cell r="N16">
             <v>350389.73192943778</v>
           </cell>
@@ -665,10 +598,10 @@
         </row>
         <row r="18">
           <cell r="N18">
-            <v>379854.78327692021</v>
+            <v>378752.90970697801</v>
           </cell>
           <cell r="P18">
-            <v>317.5598590917262</v>
+            <v>316.63868913148701</v>
           </cell>
         </row>
         <row r="19">
@@ -682,6 +615,9 @@
         <row r="20">
           <cell r="K20">
             <v>49.224510693288018</v>
+          </cell>
+          <cell r="L20">
+            <v>58.108407468396848</v>
           </cell>
           <cell r="N20">
             <v>1320743.6827423079</v>
@@ -1023,7 +959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B11031E-7A76-413E-8AA8-CC94CD0320C9}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -2286,7 +2222,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H12"/>
+      <selection activeCell="L11" sqref="L11:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2611,11 +2547,11 @@
       </c>
       <c r="L9">
         <f>[1]Sheet1!$P$18</f>
-        <v>317.5598590917262</v>
+        <v>316.63868913148701</v>
       </c>
       <c r="M9" s="8">
         <f t="shared" si="2"/>
-        <v>3.7300882698197757E-2</v>
+        <v>3.4291905380963383E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2738,8 +2674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC27698-9E19-4E63-8140-14049A15486E}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2975,7 +2911,7 @@
       </c>
       <c r="H10">
         <f>[1]Sheet1!$N$18</f>
-        <v>379854.78327692021</v>
+        <v>378752.90970697801</v>
       </c>
       <c r="I10">
         <f>D10*40.77625968</f>
@@ -2983,7 +2919,7 @@
       </c>
       <c r="K10" s="8">
         <f t="shared" si="1"/>
-        <v>4.646004526002856E-2</v>
+        <v>4.3424499265516392E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -3072,10 +3008,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE517021-3B68-49FC-9F7A-ACFF11E9DE18}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C7"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3084,7 +3020,7 @@
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
@@ -3100,8 +3036,11 @@
       <c r="F1" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
@@ -3123,8 +3062,11 @@
       <c r="H2" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3152,8 +3094,16 @@
         <f>G3/F3-1</f>
         <v>-0.11317456835870621</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f>[1]Sheet1!$L$4</f>
+        <v>57.50575300922646</v>
+      </c>
+      <c r="J3" s="12">
+        <f>I3-C3</f>
+        <v>-7.6091124387102198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -3181,8 +3131,16 @@
         <f t="shared" ref="H4:H7" si="1">G4/F4-1</f>
         <v>-0.15022215499701086</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f>[1]Sheet1!$L$12</f>
+        <v>58.73765583776612</v>
+      </c>
+      <c r="J4" s="12">
+        <f t="shared" ref="J4:J7" si="2">I4-C4</f>
+        <v>-6.6547738954979607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -3210,8 +3168,16 @@
         <f t="shared" si="1"/>
         <v>-0.14741763685731113</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f>[1]Sheet1!$L$13</f>
+        <v>59.1521906024335</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" si="2"/>
+        <v>-3.0023002180501877</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -3239,8 +3205,16 @@
         <f t="shared" si="1"/>
         <v>-6.8261678614766397E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f>[1]Sheet1!$L$16</f>
+        <v>59.083696262769827</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" si="2"/>
+        <v>-7.2370841276788198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -3267,6 +3241,14 @@
       <c r="H7" s="8">
         <f t="shared" si="1"/>
         <v>-0.11288638881445445</v>
+      </c>
+      <c r="I7">
+        <f>[1]Sheet1!$L$20</f>
+        <v>58.108407468396848</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="2"/>
+        <v>-2.3929909461514427</v>
       </c>
     </row>
   </sheetData>
